--- a/storage/app/exel_templates/route_map.xlsx
+++ b/storage/app/exel_templates/route_map.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>Акт приёма-передачи материальных ценностей от "____" ___________ 2018 года</t>
-  </si>
-  <si>
     <r>
       <t>ООО «Локум»</t>
     </r>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>%product.test%</t>
+  </si>
+  <si>
+    <t>Акт приёма-передачи материальных ценностей от " %day% "    %month%    2018 года</t>
   </si>
 </sst>
 </file>
@@ -451,6 +451,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -459,24 +477,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,7 +785,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,126 +802,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+      <c r="A5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="17"/>
+      <c r="H7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="J7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="11" t="s">
+    </row>
+    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
@@ -957,31 +957,31 @@
     </row>
     <row r="11" spans="1:20" ht="64.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="D11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
       <c r="T11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -990,41 +990,41 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="12"/>
+      <c r="A13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="18"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
+      <c r="F13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -1032,11 +1032,11 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -1044,11 +1044,11 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -1056,11 +1056,11 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -1068,11 +1068,11 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -1080,28 +1080,25 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:G7"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A1:J1"/>
@@ -1117,6 +1114,9 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>

--- a/storage/app/exel_templates/route_map.xlsx
+++ b/storage/app/exel_templates/route_map.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\openserv\ospanel\domains\app-main\storage\app\exel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\openserver\ospanel\domains\app-main\storage\app\exel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,170 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <r>
-      <t>ООО «Локум»</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Руководитель Красота Елена Сергеевна</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">ИНН </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>861703547462</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">КПП </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>772701001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ОГРН </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1187746510016</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Адрес: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>г. Москва, 117628, город Москва, улица Знаменские Садки, дом 11, этаж 1, пом. 21, ком 37</t>
-    </r>
-  </si>
-  <si>
     <t>№ п\п</t>
   </si>
   <si>
@@ -272,12 +108,18 @@
   <si>
     <t>Акт приёма-передачи материальных ценностей от " %day% "    %month%    2018 года</t>
   </si>
+  <si>
+    <t>%corporate_name%, %corporate_inn%,  %corporate_kpp%</t>
+  </si>
+  <si>
+    <t>%corporate_ogrn%, %corporate_address%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,32 +152,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
@@ -419,64 +238,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,7 +607,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,126 +624,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="A5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="D7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="E7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="F7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="I7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17" t="s">
+      <c r="J7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="17" t="s">
+    </row>
+    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="G8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
@@ -957,31 +779,31 @@
     </row>
     <row r="11" spans="1:20" ht="64.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="F11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
       <c r="T11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -990,41 +812,41 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="18"/>
+      <c r="A13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="F13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -1032,11 +854,11 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -1044,11 +866,11 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -1056,11 +878,11 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -1068,11 +890,11 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -1080,25 +902,29 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A1:J1"/>
@@ -1113,10 +939,6 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
